--- a/Data_Sources/Wisc DHS - Life Expectancy Data/life-expectancy-tables.xlsx
+++ b/Data_Sources/Wisc DHS - Life Expectancy Data/life-expectancy-tables.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vronn\Documents\Opioid Policing Model\DaneCountyOpioidSimulation\DataSources\Wisc DHS - Life Expectancy Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF128A2-A56E-4073-AE31-319972554F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01937F52-E9CF-4D42-A3B7-475F650A583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23484" yWindow="3720" windowWidth="21108" windowHeight="18588" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Life Expectancy Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Dane 2010-2014" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Census" sheetId="5" r:id="rId5"/>
+    <sheet name="Lewer 2020" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1241,18 +1242,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1275,39 +1276,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="3" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="11" fillId="3" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1335,7 +1321,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1386,11 +1372,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,9 +1409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1463,9 +1449,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1498,26 +1484,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1550,26 +1519,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1745,163 +1697,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DG32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:111" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:111" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:111" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:111" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:111" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:111" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="52" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="50" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="52" t="s">
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="50" t="s">
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="52" t="s">
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="50" t="s">
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="52" t="s">
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="50" t="s">
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="52" t="s">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="50" t="s">
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="52" t="s">
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="50" t="s">
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="52" t="s">
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="50" t="s">
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="52" t="s">
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="50" t="s">
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="BB4" s="50"/>
-      <c r="BC4" s="50"/>
-      <c r="BD4" s="52" t="s">
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="50" t="s">
+      <c r="BE4" s="43"/>
+      <c r="BF4" s="43"/>
+      <c r="BG4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="BH4" s="50"/>
-      <c r="BI4" s="50"/>
-      <c r="BJ4" s="52" t="s">
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="50" t="s">
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BN4" s="50"/>
-      <c r="BO4" s="50"/>
-      <c r="BP4" s="52" t="s">
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="50" t="s">
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="BT4" s="50"/>
-      <c r="BU4" s="50"/>
-      <c r="BV4" s="52" t="s">
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="BW4" s="52"/>
-      <c r="BX4" s="52"/>
-      <c r="BY4" s="50" t="s">
+      <c r="BW4" s="43"/>
+      <c r="BX4" s="43"/>
+      <c r="BY4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BZ4" s="50"/>
-      <c r="CA4" s="50"/>
-      <c r="CB4" s="52" t="s">
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="CC4" s="52"/>
-      <c r="CD4" s="52"/>
+      <c r="CC4" s="43"/>
+      <c r="CD4" s="43"/>
       <c r="CE4" s="3"/>
       <c r="CF4" s="3"/>
       <c r="CG4" s="3"/>
@@ -1932,7 +1884,7 @@
       <c r="DF4" s="3"/>
       <c r="DG4" s="3"/>
     </row>
-    <row r="5" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2183,7 +2135,7 @@
       <c r="CF5" s="2"/>
       <c r="CG5" s="2"/>
     </row>
-    <row r="6" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2431,7 +2383,7 @@
         <v>77.378719942882384</v>
       </c>
     </row>
-    <row r="7" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2679,7 +2631,7 @@
         <v>77.046912420164759</v>
       </c>
     </row>
-    <row r="8" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2927,7 +2879,7 @@
         <v>73.17413139865404</v>
       </c>
     </row>
-    <row r="9" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3175,7 +3127,7 @@
         <v>68.244481338726757</v>
       </c>
     </row>
-    <row r="10" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3423,7 +3375,7 @@
         <v>63.327000260595561</v>
       </c>
     </row>
-    <row r="11" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -3671,7 +3623,7 @@
         <v>58.567356693700013</v>
       </c>
     </row>
-    <row r="12" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3919,7 +3871,7 @@
         <v>53.810636095848004</v>
       </c>
     </row>
-    <row r="13" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -4167,7 +4119,7 @@
         <v>49.021765724401341</v>
       </c>
     </row>
-    <row r="14" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -4415,7 +4367,7 @@
         <v>44.251445606312636</v>
       </c>
     </row>
-    <row r="15" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -4663,7 +4615,7 @@
         <v>39.503770042071231</v>
       </c>
     </row>
-    <row r="16" spans="1:111" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -4911,7 +4863,7 @@
         <v>34.836003969001048</v>
       </c>
     </row>
-    <row r="17" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -5159,7 +5111,7 @@
         <v>30.286204527086515</v>
       </c>
     </row>
-    <row r="18" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -5407,7 +5359,7 @@
         <v>25.933431582889916</v>
       </c>
     </row>
-    <row r="19" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -5655,7 +5607,7 @@
         <v>21.864537029192466</v>
       </c>
     </row>
-    <row r="20" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -5903,7 +5855,7 @@
         <v>18.097672845863197</v>
       </c>
     </row>
-    <row r="21" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -6151,7 +6103,7 @@
         <v>14.656857055531193</v>
       </c>
     </row>
-    <row r="22" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -6399,7 +6351,7 @@
         <v>11.524217187279399</v>
       </c>
     </row>
-    <row r="23" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -6647,7 +6599,7 @@
         <v>8.8417246873553275</v>
       </c>
     </row>
-    <row r="24" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -6895,7 +6847,7 @@
         <v>6.5708373856305489</v>
       </c>
     </row>
-    <row r="25" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -7143,7 +7095,7 @@
         <v>4.7240815306028949</v>
       </c>
     </row>
-    <row r="26" spans="1:82" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:82" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -7391,7 +7343,7 @@
         <v>3.3747000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.35">
       <c r="BR32" s="5"/>
     </row>
   </sheetData>
@@ -7434,22 +7386,22 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -7463,7 +7415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -7478,6 +7430,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F7169A4F-C312-4834-9299-8623896996EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7490,12 +7445,12 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -7515,7 +7470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A22">'Life Expectancy Tables'!A6:A26</f>
         <v>0</v>
@@ -7537,7 +7492,7 @@
         <v>3.4671867981046637E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <v>1-4</v>
       </c>
@@ -7558,7 +7513,7 @@
         <v>3.4877433955181907E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <v>5-9</v>
       </c>
@@ -7579,7 +7534,7 @@
         <v>3.6705665197388574E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <v>10-14</v>
       </c>
@@ -7600,7 +7555,7 @@
         <v>3.9295587287397325E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <v>15-19</v>
       </c>
@@ -7621,7 +7576,7 @@
         <v>4.2290148623925541E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <v>20-24</v>
       </c>
@@ -7642,29 +7597,29 @@
         <v>4.5687647582607165E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="str">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="str">
         <v>25-29</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="29">
         <f t="array" ref="B8">AVERAGE(VLOOKUP(A8, 'Life Expectancy Tables'!$A$6:$CD$26, {4,7,10,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67,70,73,76,79,82}, FALSE))</f>
         <v>55.162928739260707</v>
       </c>
-      <c r="C8" s="36" cm="1">
+      <c r="C8" s="29" cm="1">
         <f t="array" ref="C8">_xlfn.STDEV.P(VLOOKUP(A8, 'Life Expectancy Tables'!$A$6:$CD$26, {4,7,10,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67,70,73,76,79,82}, FALSE))</f>
         <v>0.86822746785444516</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>20148.259722014973</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="29">
         <f t="shared" si="1"/>
         <v>4.9632078094931003E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <v>30-34</v>
       </c>
@@ -7685,7 +7640,7 @@
         <v>5.4332494092562086E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <v>35-39</v>
       </c>
@@ -7706,7 +7661,7 @@
         <v>6.001174212427345E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <v>40-44</v>
       </c>
@@ -7727,7 +7682,7 @@
         <v>6.695382376361397E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <v>45-49</v>
       </c>
@@ -7748,7 +7703,7 @@
         <v>7.5566431139719752E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <v>50-54</v>
       </c>
@@ -7769,7 +7724,7 @@
         <v>8.6401802216123E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <v>55-59</v>
       </c>
@@ -7790,7 +7745,7 @@
         <v>1.0029589299842368E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <v>60-64</v>
       </c>
@@ -7811,7 +7766,7 @@
         <v>1.1844945570753187E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <v>65-69</v>
       </c>
@@ -7832,7 +7787,7 @@
         <v>1.4276536384465527E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <v>70-74</v>
       </c>
@@ -7853,7 +7808,7 @@
         <v>1.7615849897873988E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <v>75-79</v>
       </c>
@@ -7874,7 +7829,7 @@
         <v>2.2356254128388296E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <v>80-84</v>
       </c>
@@ -7895,7 +7850,7 @@
         <v>2.9401382054994101E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <v>85-89</v>
       </c>
@@ -7916,7 +7871,7 @@
         <v>4.0022178247511864E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <v>90-94</v>
       </c>
@@ -7937,7 +7892,7 @@
         <v>5.7454003037343468E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <v>95+</v>
       </c>
@@ -7958,14 +7913,14 @@
         <v>8.0898107334308211E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="51" t="s">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -7985,7 +7940,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -8007,7 +7962,7 @@
         <v>3.4240207836451693E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -8029,7 +7984,7 @@
         <v>3.4462284383018527E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -8051,7 +8006,7 @@
         <v>3.6256543780913513E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -8073,7 +8028,7 @@
         <v>3.8807634635619037E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -8095,7 +8050,7 @@
         <v>4.1737327626340754E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -8117,29 +8072,29 @@
         <v>4.5071578138213534E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="31">
         <v>53.797312317938577</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="31">
         <v>58.134405358843999</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="31">
         <v>55.980042857233471</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="29">
         <f t="shared" si="2"/>
         <v>20446.710653604525</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="29">
         <f t="shared" si="3"/>
         <v>4.8907622205907786E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -8161,7 +8116,7 @@
         <v>5.3378793086821167E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -8183,7 +8138,7 @@
         <v>5.8755255144211405E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -8205,7 +8160,7 @@
         <v>6.5330685235191275E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -8227,7 +8182,7 @@
         <v>7.3479941081639285E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -8249,7 +8204,7 @@
         <v>8.3636129479808274E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -8271,7 +8226,7 @@
         <v>9.6555306262875222E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -8293,7 +8248,7 @@
         <v>1.1346229539499578E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -8315,7 +8270,7 @@
         <v>1.3629301190423455E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -8337,7 +8292,7 @@
         <v>1.6838953648391322E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -8359,7 +8314,7 @@
         <v>2.1511032642540539E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -8381,7 +8336,7 @@
         <v>2.8611718400819986E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -8403,7 +8358,7 @@
         <v>4.0260594715545015E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -8425,7 +8380,7 @@
         <v>5.9694931417879414E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -8459,29 +8414,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="6" max="7" width="10.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
@@ -8507,7 +8462,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8533,7 +8488,7 @@
         <v>1.8460000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -8559,7 +8514,7 @@
         <v>1.7518</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -8585,7 +8540,7 @@
         <v>1.7470000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -8611,33 +8566,33 @@
         <v>1.7430000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="29">
         <v>1.1913E-2</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="30">
         <v>97957</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="30">
         <v>1166</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="30">
         <v>973743</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="30">
         <v>5452551</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="29">
         <v>55.7</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="29">
         <v>1.7183999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -8663,7 +8618,7 @@
         <v>1.6927000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -8689,7 +8644,7 @@
         <v>1.6783999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -8715,7 +8670,7 @@
         <v>1.6868000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -8741,7 +8696,7 @@
         <v>1.7445999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -8767,7 +8722,7 @@
         <v>1.8965000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -8793,77 +8748,77 @@
         <v>2.4986999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+    <row r="18" spans="1:17" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="59" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="61" t="s">
+      <c r="D20" s="59"/>
+      <c r="E20" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="61" t="s">
+      <c r="H20" s="59"/>
+      <c r="I20" s="52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66"/>
+    <row r="21" spans="1:17" ht="92.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="55"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="23" t="s">
+      <c r="E21" s="53"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>94</v>
       </c>
@@ -8879,77 +8834,77 @@
       <c r="E22" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="53" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
       <c r="L23" t="s">
         <v>123</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="32" t="s">
         <v>124</v>
       </c>
       <c r="N23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>6.9477000000000002E-3</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>100000</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>99436</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>76.860219999999998</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="19">
         <v>6.9426298141479492E-3</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="20">
         <v>100000</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="20">
         <v>99436.40625</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="21">
         <v>77.040359497070313</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="L24" s="41">
-        <f t="shared" ref="L24:L45" si="0">G24-G25</f>
+      <c r="J24" s="32"/>
+      <c r="L24" s="9">
+        <f>G24-G25</f>
         <v>694.265625</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="32">
         <f>L24/$G$24</f>
         <v>6.94265625E-3</v>
       </c>
@@ -8968,40 +8923,40 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>1.30134E-3</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>99305.23</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>396915</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>76.396640000000005</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="19">
         <v>1.2957453727722168E-3</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="20">
         <v>99305.734375</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="20">
         <v>396918.34375</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="21">
         <v>76.577644348144531</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="L25" s="41">
-        <f t="shared" si="0"/>
+      <c r="J25" s="32"/>
+      <c r="L25" s="9">
+        <f t="shared" ref="L25:L45" si="0">G25-G26</f>
         <v>128.671875</v>
       </c>
-      <c r="M25" s="40">
+      <c r="M25" s="32">
         <f t="shared" ref="M25:M45" si="1">L25/$G$24</f>
         <v>1.2867187500000001E-3</v>
       </c>
@@ -9020,40 +8975,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>7.9767E-4</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>99176</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>495668</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>72.494060000000005</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="19">
         <v>7.9584121704101563E-4</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="20">
         <v>99177.0625</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="20">
         <v>495673.78125</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="21">
         <v>72.674880981445313</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="L26" s="41">
+      <c r="J26" s="32"/>
+      <c r="L26" s="9">
         <f t="shared" si="0"/>
         <v>78.9296875</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="32">
         <f t="shared" si="1"/>
         <v>7.8929687499999996E-4</v>
       </c>
@@ -9074,40 +9029,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>9.9781000000000002E-4</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>99096.89</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>495297</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>67.550079999999994</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="19">
         <v>9.9009275436401367E-4</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="28">
         <v>99098.1328125</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="20">
         <v>495304.65625</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="21">
         <v>67.730918884277344</v>
       </c>
-      <c r="J27" s="40"/>
-      <c r="L27" s="41">
+      <c r="J27" s="32"/>
+      <c r="L27" s="9">
         <f t="shared" si="0"/>
         <v>98.1171875</v>
       </c>
-      <c r="M27" s="40">
+      <c r="M27" s="32">
         <f t="shared" si="1"/>
         <v>9.8117187500000006E-4</v>
       </c>
@@ -9119,45 +9074,45 @@
         <f t="shared" si="3"/>
         <v>4.4598721590909098E-5</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="29">
         <f t="shared" ref="P27:P45" si="4">P26+5</f>
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>3.3736E-3</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>98998.01</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>494240</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>62.614449999999998</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="19">
         <v>3.2618045806884766E-3</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="20">
         <v>99000.015625</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="20">
         <v>494274.875</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="21">
         <v>62.794971466064453</v>
       </c>
-      <c r="J28" s="40"/>
-      <c r="L28" s="41">
+      <c r="J28" s="32"/>
+      <c r="L28" s="9">
         <f t="shared" si="0"/>
         <v>322.921875</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="32">
         <f t="shared" si="1"/>
         <v>3.2292187499999999E-3</v>
       </c>
@@ -9174,45 +9129,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>4.6775899999999997E-3</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>98664.03</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>492182</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>57.817079999999997</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="19">
         <v>4.3822526931762695E-3</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="20">
         <v>98677.09375</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="20">
         <v>492319.03125</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="21">
         <v>57.991451263427734</v>
       </c>
       <c r="J29" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="9">
         <f t="shared" si="0"/>
         <v>432.4296875</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="32">
         <f t="shared" si="1"/>
         <v>4.3242968749999996E-3</v>
       </c>
@@ -9229,47 +9184,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="27">
         <v>4.5983500000000002E-3</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="28">
         <v>98202.52</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="28">
         <v>489891</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="25">
         <v>53.076889999999999</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="27">
         <v>4.2167901992797852E-3</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="28">
         <v>98244.6640625</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="28">
         <v>490194.34375</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="25">
         <v>53.235553741455078</v>
       </c>
-      <c r="J30" s="41">
+      <c r="J30" s="9">
         <f>G30-G31</f>
         <v>414.2734375</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="32">
         <f>J30/$G$30</f>
         <v>4.2167525478681769E-3</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="9">
         <f t="shared" si="0"/>
         <v>414.2734375</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="32">
         <f t="shared" si="1"/>
         <v>4.1427343750000001E-3</v>
       </c>
@@ -9286,47 +9241,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>5.6274599999999999E-3</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>97750.95</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>487448</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <v>48.310450000000003</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="19">
         <v>5.1118135452270508E-3</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="20">
         <v>97830.390625</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="20">
         <v>487963.96875</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="21">
         <v>48.450328826904297</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="9">
         <f t="shared" ref="J31:J45" si="5">G31-G32</f>
         <v>500.09375</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="32">
         <f t="shared" ref="K31:K45" si="6">J31/$G$30</f>
         <v>5.0902891752152256E-3</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="9">
         <f t="shared" si="0"/>
         <v>500.09375</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="32">
         <f t="shared" si="1"/>
         <v>5.0009375000000002E-3</v>
       </c>
@@ -9343,47 +9298,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>8.0179299999999995E-3</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>97200.86</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>484172</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="21">
         <v>43.569009999999999</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="19">
         <v>7.2932243347167969E-3</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="20">
         <v>97330.296875</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="20">
         <v>484982.59375</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="21">
         <v>43.685787200927734</v>
       </c>
-      <c r="J32" s="41">
+      <c r="J32" s="9">
         <f t="shared" si="5"/>
         <v>709.8515625</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="32">
         <f t="shared" si="6"/>
         <v>7.2253446970760261E-3</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="9">
         <f t="shared" si="0"/>
         <v>709.8515625</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="32">
         <f t="shared" si="1"/>
         <v>7.0985156250000002E-3</v>
       </c>
@@ -9400,47 +9355,47 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>1.1904919999999999E-2</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>96421.51</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>479413</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <v>38.899749999999997</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="19">
         <v>1.1021018028259277E-2</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="20">
         <v>96620.4453125</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="20">
         <v>480602.59375</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="21">
         <v>38.987277984619141</v>
       </c>
-      <c r="J33" s="41">
+      <c r="J33" s="9">
         <f t="shared" si="5"/>
         <v>1064.859375</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="32">
         <f t="shared" si="6"/>
         <v>1.0838852014625158E-2</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="9">
         <f t="shared" si="0"/>
         <v>1064.859375</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="32">
         <f t="shared" si="1"/>
         <v>1.0648593749999999E-2</v>
       </c>
@@ -9478,47 +9433,47 @@
       <c r="BZ33" s="9"/>
       <c r="CA33" s="9"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>1.7551549999999999E-2</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>95273.62</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="20">
         <v>472428</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="21">
         <v>34.336469999999998</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="19">
         <v>1.6743004322052002E-2</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="20">
         <v>95555.5859375</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="20">
         <v>474008.21875</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="21">
         <v>34.392185211181641</v>
       </c>
-      <c r="J34" s="41">
+      <c r="J34" s="9">
         <f t="shared" si="5"/>
         <v>1599.890625</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="32">
         <f t="shared" si="6"/>
         <v>1.6284758467718943E-2</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="9">
         <f t="shared" si="0"/>
         <v>1599.890625</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="32">
         <f t="shared" si="1"/>
         <v>1.599890625E-2</v>
       </c>
@@ -9535,47 +9490,47 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>2.5309979999999999E-2</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>93601.42</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <v>462433</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <v>29.902670000000001</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="19">
         <v>2.47955322265625E-2</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="20">
         <v>93955.6953125</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="20">
         <v>464297</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="21">
         <v>29.932802200317383</v>
       </c>
-      <c r="J35" s="41">
+      <c r="J35" s="9">
         <f t="shared" si="5"/>
         <v>2329.6796875</v>
       </c>
-      <c r="K35" s="40">
+      <c r="K35" s="32">
         <f t="shared" si="6"/>
         <v>2.3713040394926027E-2</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="9">
         <f t="shared" si="0"/>
         <v>2329.6796875</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="32">
         <f t="shared" si="1"/>
         <v>2.3296796875000001E-2</v>
       </c>
@@ -9592,47 +9547,47 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>3.9351270000000001E-2</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>91232.37</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="20">
         <v>447786</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="21">
         <v>25.610420000000001</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="19">
         <v>3.9056360721588135E-2</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="20">
         <v>91626.015625</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="20">
         <v>449781.125</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="21">
         <v>25.626567840576172</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J36" s="9">
         <f t="shared" si="5"/>
         <v>3578.578125</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="32">
         <f t="shared" si="6"/>
         <v>3.6425165266211576E-2</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="9">
         <f t="shared" si="0"/>
         <v>3578.578125</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="32">
         <f t="shared" si="1"/>
         <v>3.5785781250000002E-2</v>
       </c>
@@ -9649,47 +9604,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>6.0609000000000003E-2</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>87642.26</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <v>425732</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="21">
         <v>21.550249999999998</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="19">
         <v>6.0427010059356689E-2</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="20">
         <v>88047.4375</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="20">
         <v>427737.84375</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="21">
         <v>21.559730529785156</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J37" s="9">
         <f t="shared" si="5"/>
         <v>5320.4453125</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="32">
         <f t="shared" si="6"/>
         <v>5.415505629003229E-2</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="9">
         <f t="shared" si="0"/>
         <v>5320.4453125</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="32">
         <f t="shared" si="1"/>
         <v>5.3204453125000002E-2</v>
       </c>
@@ -9706,47 +9661,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>9.0361570000000002E-2</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>82330.350000000006</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="20">
         <v>393994</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="21">
         <v>17.769649999999999</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="19">
         <v>9.0229570865631104E-2</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="20">
         <v>82726.9921875</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="20">
         <v>395918.0625</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="21">
         <v>17.77583122253418</v>
       </c>
-      <c r="J38" s="41">
+      <c r="J38" s="9">
         <f t="shared" si="5"/>
         <v>7464.421875</v>
       </c>
-      <c r="K38" s="40">
+      <c r="K38" s="32">
         <f t="shared" si="6"/>
         <v>7.5977885885500931E-2</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="9">
         <f t="shared" si="0"/>
         <v>7464.421875</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M38" s="32">
         <f>L38/$G$24</f>
         <v>7.4644218750000005E-2</v>
       </c>
@@ -9763,47 +9718,47 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>0.13682352</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>74890.850000000006</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="20">
         <v>350160</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="21">
         <v>14.27393</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="19">
         <v>0.13670182228088379</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="20">
         <v>75262.5703125</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="20">
         <v>351919.71875</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="21">
         <v>14.278321266174316</v>
       </c>
-      <c r="J39" s="41">
+      <c r="J39" s="9">
         <f t="shared" si="5"/>
         <v>10288.53125</v>
       </c>
-      <c r="K39" s="40">
+      <c r="K39" s="32">
         <f t="shared" si="6"/>
         <v>0.10472356283344587</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L39" s="9">
         <f t="shared" si="0"/>
         <v>10288.53125</v>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="32">
         <f t="shared" si="1"/>
         <v>0.10288531250000001</v>
       </c>
@@ -9820,47 +9775,47 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>0.21284815000000001</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>64644.02</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <v>290184.40000000002</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="21">
         <v>11.11978</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="19">
         <v>0.21270996332168579</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="20">
         <v>64974.0390625</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="20">
         <v>291687.40625</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="21">
         <v>11.122956275939941</v>
       </c>
-      <c r="J40" s="41">
+      <c r="J40" s="9">
         <f t="shared" si="5"/>
         <v>13820.625</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="32">
         <f t="shared" si="6"/>
         <v>0.14067557899335659</v>
       </c>
-      <c r="L40" s="41">
+      <c r="L40" s="9">
         <f t="shared" si="0"/>
         <v>13820.625</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="32">
         <f>L40/$G$24</f>
         <v>0.13820625</v>
       </c>
@@ -9877,47 +9832,47 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>0.32169911000000001</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>50884.66</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="20">
         <v>214107.4</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="21">
         <v>8.4238079999999993</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="19">
         <v>0.3215603232383728</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="20">
         <v>51153.4140625</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="20">
         <v>215255.71875</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="21">
         <v>8.4259481430053711</v>
       </c>
-      <c r="J41" s="41">
+      <c r="J41" s="9">
         <f t="shared" si="5"/>
         <v>16448.91015625</v>
       </c>
-      <c r="K41" s="40">
+      <c r="K41" s="32">
         <f t="shared" si="6"/>
         <v>0.16742802587004368</v>
       </c>
-      <c r="L41" s="41">
+      <c r="L41" s="9">
         <f t="shared" si="0"/>
         <v>16448.91015625</v>
       </c>
-      <c r="M41" s="40">
+      <c r="M41" s="32">
         <f t="shared" si="1"/>
         <v>0.16448910156249999</v>
       </c>
@@ -9934,47 +9889,47 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>0.46412687000000002</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>34515.11</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="20">
         <v>131559.71</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="21">
         <v>6.2156890000000002</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="19">
         <v>0.46399027109146118</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="20">
         <v>34704.50390625</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="20">
         <v>132293.75</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="21">
         <v>6.2170681953430176</v>
       </c>
-      <c r="J42" s="41">
+      <c r="J42" s="9">
         <f t="shared" si="5"/>
         <v>16102.552734375</v>
       </c>
-      <c r="K42" s="40">
+      <c r="K42" s="32">
         <f t="shared" si="6"/>
         <v>0.1639025680227385</v>
       </c>
-      <c r="L42" s="41">
+      <c r="L42" s="9">
         <f t="shared" si="0"/>
         <v>16102.552734375</v>
       </c>
-      <c r="M42" s="40">
+      <c r="M42" s="32">
         <f t="shared" si="1"/>
         <v>0.16102552734375</v>
       </c>
@@ -9991,47 +9946,47 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="19">
         <v>0.62805195000000003</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>18495.72</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="20">
         <v>61008.9</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="21">
         <v>4.4862000000000002</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="19">
         <v>0.62794399261474609</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="20">
         <v>18601.951171875</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="20">
         <v>61364.75</v>
       </c>
-      <c r="I43" s="26">
+      <c r="I43" s="21">
         <v>4.4869766235351563</v>
       </c>
-      <c r="J43" s="41">
+      <c r="J43" s="9">
         <f t="shared" si="5"/>
         <v>11680.98291015625</v>
       </c>
-      <c r="K43" s="40">
+      <c r="K43" s="32">
         <f t="shared" si="6"/>
         <v>0.11889686856402905</v>
       </c>
-      <c r="L43" s="41">
+      <c r="L43" s="9">
         <f t="shared" si="0"/>
         <v>11680.98291015625</v>
       </c>
-      <c r="M43" s="40">
+      <c r="M43" s="32">
         <f t="shared" si="1"/>
         <v>0.1168098291015625</v>
       </c>
@@ -10048,47 +10003,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>0.78498692999999997</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>6879.4470000000001</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="20">
         <v>18610.260999999999</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="21">
         <v>3.1930749999999999</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="19">
         <v>0.78492307662963867</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="20">
         <v>6920.96826171875</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="20">
         <v>18723.875</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="21">
         <v>3.1934506893157959</v>
       </c>
-      <c r="J44" s="41">
+      <c r="J44" s="9">
         <f t="shared" si="5"/>
         <v>5432.4278564453125</v>
       </c>
-      <c r="K44" s="40">
+      <c r="K44" s="32">
         <f t="shared" si="6"/>
         <v>5.5294889633796113E-2</v>
       </c>
-      <c r="L44" s="41">
+      <c r="L44" s="9">
         <f t="shared" si="0"/>
         <v>5432.4278564453125</v>
       </c>
-      <c r="M44" s="40">
+      <c r="M44" s="32">
         <f t="shared" si="1"/>
         <v>5.4324278564453127E-2</v>
       </c>
@@ -10105,47 +10060,47 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:79" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>1</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>1479.171</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="20">
         <v>3356.3290000000002</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="21">
         <v>2.2690600000000001</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="22">
         <v>1</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="23">
         <v>1488.5404052734375</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="23">
         <v>3377.895751953125</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="24">
         <v>2.2692670822143555</v>
       </c>
-      <c r="J45" s="41">
+      <c r="J45" s="9">
         <f t="shared" si="5"/>
         <v>1488.5404052734375</v>
       </c>
-      <c r="K45" s="40">
+      <c r="K45" s="32">
         <f t="shared" si="6"/>
         <v>1.5151361343415836E-2</v>
       </c>
-      <c r="L45" s="41">
+      <c r="L45" s="9">
         <f t="shared" si="0"/>
         <v>1488.5404052734375</v>
       </c>
-      <c r="M45" s="40">
+      <c r="M45" s="32">
         <f t="shared" si="1"/>
         <v>1.4885404052734376E-2</v>
       </c>
@@ -10162,15 +10117,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A46" s="16"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="18"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="40"/>
+      <c r="E46" s="17"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10201,35 +10156,35 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="B2" s="69" t="s">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="B2" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="69" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="69" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
         <v>171</v>
       </c>
       <c r="B3" t="s">
@@ -10245,521 +10200,521 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="35">
         <v>0.111</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="37">
         <v>60227</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="35">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="37">
         <v>681793</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="35">
         <v>0.121</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="37">
         <v>39629231</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="47">
+    <row r="5" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="38">
         <v>44853</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="35">
         <v>0.125</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="37">
         <v>67535</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="35">
         <v>0.129</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="37">
         <v>746516</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="39">
         <v>0.13</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="37">
         <v>42282865</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="36" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="35">
         <v>0.186</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="37">
         <v>100969</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="35">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="37">
         <v>767959</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="35">
         <v>0.13800000000000001</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="37">
         <v>45082533</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="35">
         <v>0.14699999999999999</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="37">
         <v>79633</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="35">
         <v>0.127</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="37">
         <v>735938</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="35">
         <v>0.13300000000000001</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="37">
         <v>43569065</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="35">
         <v>0.11899999999999999</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="37">
         <v>64618</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="35">
         <v>0.11799999999999999</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="37">
         <v>685320</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="35">
         <v>0.124</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="37">
         <v>40570591</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="35">
         <v>0.121</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="37">
         <v>65707</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="35">
         <v>0.14099999999999999</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="37">
         <v>817241</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="35">
         <v>0.13100000000000001</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="37">
         <v>42756488</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="35">
         <v>0.10299999999999999</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="37">
         <v>55992</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="35">
         <v>0.123</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="37">
         <v>716792</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="35">
         <v>0.115</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="37">
         <v>37617490</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="36" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="35">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="37">
         <v>30875</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="37">
         <v>406691</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="35">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="37">
         <v>22359892</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="36" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="35">
         <v>3.1E-2</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="37">
         <v>16903</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="35">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="37">
         <v>248725</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="35">
         <v>3.9E-2</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="37">
         <v>12701153</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="36" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="47">
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="38">
         <v>44853</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="35">
         <f>D15/SUM($D$15:$D$22)</f>
         <v>0.1400466995139269</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="37">
         <v>67535</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="35">
         <f t="shared" ref="B16:B22" si="0">D16/SUM($D$15:$D$22)</f>
         <v>0.2093784734318751</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="37">
         <v>100969</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="35">
         <f t="shared" si="0"/>
         <v>0.16513420926027306</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="37">
         <v>79633</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="35">
         <f t="shared" si="0"/>
         <v>0.13399774382454918</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="37">
         <v>64618</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="35">
         <f t="shared" si="0"/>
         <v>0.13625599296604124</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="37">
         <v>65707</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="35">
         <f t="shared" si="0"/>
         <v>0.11611008809037973</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="37">
         <v>55992</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="36" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="35">
         <f t="shared" si="0"/>
         <v>6.4025199489042617E-2</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="37">
         <v>30875</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="36" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="35">
         <f t="shared" si="0"/>
         <v>3.505159342391214E-2</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="37">
         <v>16903</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="36" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10779,32 +10734,35 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="52.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -10812,7 +10770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.25</v>
       </c>
@@ -10820,7 +10778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.5</v>
       </c>
@@ -10828,7 +10786,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.75</v>
       </c>
@@ -10836,7 +10794,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>

--- a/Data_Sources/Wisc DHS - Life Expectancy Data/life-expectancy-tables.xlsx
+++ b/Data_Sources/Wisc DHS - Life Expectancy Data/life-expectancy-tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vronn\Documents\Opioid Policing Model\DaneCountyOpioidSimulation\DataSources\Wisc DHS - Life Expectancy Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmw24\Documents\GitHub\DaneCountyOpioidSimulation\DataSources\Wisc DHS - Life Expectancy Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01937F52-E9CF-4D42-A3B7-475F650A583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14862FE-48D9-4741-912B-5DA9D21F3F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42160" yWindow="2110" windowWidth="21540" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Life Expectancy Tables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Lewer 2020" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1318,13 +1317,13 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1697,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H47" sqref="H47"/>
     </sheetView>
@@ -1719,141 +1718,141 @@
     </row>
     <row r="4" spans="1:111" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="43" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="41" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="43" t="s">
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="41" t="s">
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="43" t="s">
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="41" t="s">
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="43" t="s">
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="41" t="s">
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="43" t="s">
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="41" t="s">
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="43" t="s">
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="41" t="s">
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="43" t="s">
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="41" t="s">
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="43" t="s">
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="41" t="s">
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="43" t="s">
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="41" t="s">
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="43" t="s">
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="41" t="s">
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="43" t="s">
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="BQ4" s="43"/>
-      <c r="BR4" s="43"/>
-      <c r="BS4" s="41" t="s">
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="43" t="s">
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="BW4" s="43"/>
-      <c r="BX4" s="43"/>
-      <c r="BY4" s="41" t="s">
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="43" t="s">
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="CC4" s="43"/>
-      <c r="CD4" s="43"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
       <c r="CE4" s="3"/>
       <c r="CF4" s="3"/>
       <c r="CG4" s="3"/>
@@ -7348,15 +7347,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BV4:BX4"/>
-    <mergeCell ref="BY4:CA4"/>
-    <mergeCell ref="CB4:CD4"/>
-    <mergeCell ref="BD4:BF4"/>
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="BA4:BC4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Y4"/>
@@ -7369,12 +7365,15 @@
     <mergeCell ref="AR4:AT4"/>
     <mergeCell ref="AU4:AW4"/>
     <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="BV4:BX4"/>
+    <mergeCell ref="BY4:CA4"/>
+    <mergeCell ref="CB4:CD4"/>
+    <mergeCell ref="BD4:BF4"/>
+    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7914,11 +7913,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
     </row>
     <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -8414,8 +8413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CA46"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8761,7 +8760,7 @@
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="50" t="s">
         <v>87</v>
       </c>
@@ -8847,7 +8846,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="44" t="s">
         <v>99</v>
